--- a/teaching/traditional_assets/database/data/iceland/iceland_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/iceland/iceland_financial_svcs_non_bank_insurance.xlsx
@@ -591,7 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.182</v>
+        <v>0.156</v>
+      </c>
+      <c r="E2">
+        <v>0.757</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -600,97 +603,94 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00132903434938895</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001280559570224395</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.3</v>
+        <v>15.4</v>
       </c>
       <c r="L2">
-        <v>0.3250444049733571</v>
+        <v>0.281021897810219</v>
       </c>
       <c r="M2">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02110849056603774</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1956284153005464</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02110849056603774</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1956284153005464</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>209.6</v>
+        <v>196.1</v>
       </c>
       <c r="V2">
-        <v>1.235849056603774</v>
+        <v>0.6734203296703297</v>
+      </c>
+      <c r="W2">
+        <v>0.1287625418060201</v>
       </c>
       <c r="X2">
-        <v>0.03885839466683606</v>
+        <v>0.02415892083500626</v>
+      </c>
+      <c r="Y2">
+        <v>0.1046036209710138</v>
       </c>
       <c r="Z2">
-        <v>13.35428008492355</v>
+        <v>0.4164133738601823</v>
       </c>
       <c r="AA2">
-        <v>0.01710095116620591</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03719941583666569</v>
+        <v>0.02292052941485705</v>
       </c>
       <c r="AC2">
-        <v>-0.02009846467045979</v>
+        <v>-0.02292052941485705</v>
       </c>
       <c r="AD2">
-        <v>245.4</v>
+        <v>230.4</v>
       </c>
       <c r="AE2">
-        <v>4.21587683064701</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>249.615876830647</v>
+        <v>230.4</v>
       </c>
       <c r="AG2">
-        <v>40.01587683064702</v>
+        <v>34.30000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.5954351698647276</v>
+        <v>0.4417177914110429</v>
       </c>
       <c r="AI2">
-        <v>0.6753386217362563</v>
+        <v>0.6416040100250626</v>
       </c>
       <c r="AJ2">
-        <v>0.1909009824812873</v>
+        <v>0.1053763440860215</v>
       </c>
       <c r="AK2">
-        <v>0.2500744152594174</v>
+        <v>0.2104294478527608</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>267.3202614379085</v>
-      </c>
-      <c r="AP2">
-        <v>43.59027977194664</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.182</v>
+        <v>0.156</v>
+      </c>
+      <c r="E3">
+        <v>0.757</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -719,97 +722,94 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00132903434938895</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001280559570224395</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>18.3</v>
+        <v>15.4</v>
       </c>
       <c r="L3">
-        <v>0.3250444049733571</v>
+        <v>0.281021897810219</v>
       </c>
       <c r="M3">
-        <v>3.58</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02110849056603774</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.1956284153005464</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>3.58</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02110849056603774</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.1956284153005464</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>209.6</v>
+        <v>196.1</v>
       </c>
       <c r="V3">
-        <v>1.235849056603774</v>
+        <v>0.6734203296703297</v>
+      </c>
+      <c r="W3">
+        <v>0.1287625418060201</v>
       </c>
       <c r="X3">
-        <v>0.03885839466683606</v>
+        <v>0.02415892083500626</v>
+      </c>
+      <c r="Y3">
+        <v>0.1046036209710138</v>
       </c>
       <c r="Z3">
-        <v>13.35428008492355</v>
+        <v>0.4164133738601823</v>
       </c>
       <c r="AA3">
-        <v>0.01710095116620591</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03719941583666569</v>
+        <v>0.02292052941485705</v>
       </c>
       <c r="AC3">
-        <v>-0.02009846467045979</v>
+        <v>-0.02292052941485705</v>
       </c>
       <c r="AD3">
-        <v>245.4</v>
+        <v>230.4</v>
       </c>
       <c r="AE3">
-        <v>4.21587683064701</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>249.615876830647</v>
+        <v>230.4</v>
       </c>
       <c r="AG3">
-        <v>40.01587683064702</v>
+        <v>34.30000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.5954351698647276</v>
+        <v>0.4417177914110429</v>
       </c>
       <c r="AI3">
-        <v>0.6753386217362563</v>
+        <v>0.6416040100250626</v>
       </c>
       <c r="AJ3">
-        <v>0.1909009824812873</v>
+        <v>0.1053763440860215</v>
       </c>
       <c r="AK3">
-        <v>0.2500744152594174</v>
+        <v>0.2104294478527608</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>267.3202614379085</v>
-      </c>
-      <c r="AP3">
-        <v>43.59027977194664</v>
       </c>
     </row>
   </sheetData>
